--- a/Nr.1 Apeducte-Canalizare_47/Fwd Sarcina tehnica-modificata Nr1 apeduct -canalizare/tabelul2.xlsx
+++ b/Nr.1 Apeducte-Canalizare_47/Fwd Sarcina tehnica-modificata Nr1 apeduct -canalizare/tabelul2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bns\Nr.1 Apeducte-Canalizare_47\Fwd Sarcina tehnica-modificata Nr1 apeduct -canalizare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B491D90-AA9A-4ECE-B430-B77183EAF728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3099D123-5815-451A-991D-B76D5A5CCAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet7" sheetId="8" r:id="rId1"/>
-    <sheet name="Sheet12" sheetId="13" r:id="rId2"/>
-    <sheet name="Sheet11" sheetId="12" r:id="rId3"/>
-    <sheet name="Sheet10" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
+    <sheet name="Sheet12" sheetId="13" r:id="rId3"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
   <si>
     <t>Denumirea localităţii</t>
   </si>
@@ -185,6 +186,13 @@
   <si>
     <t>Numărul
 de locuinţe conectate la serviciul public de canalizare, unităţi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numărul staţiilor de epurare a apelor uzate, unităţi      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inclusiv în funcţiune               
+</t>
   </si>
 </sst>
 </file>
@@ -221,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -383,11 +391,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -398,49 +421,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -452,37 +454,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,97 +828,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CD74D3-F8B7-4EE8-8753-D97283C67ED4}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="4" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="L1" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="38"/>
+      <c r="N1" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="45"/>
+      <c r="S2" s="44"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="13"/>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="45"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="44"/>
+    </row>
+    <row r="4" spans="1:19" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="44"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -887,14 +1014,43 @@
       <c r="K5" s="1">
         <v>9</v>
       </c>
+      <c r="L5" s="36">
+        <v>10</v>
+      </c>
+      <c r="M5" s="36">
+        <v>11</v>
+      </c>
+      <c r="N5" s="36">
+        <v>12</v>
+      </c>
+      <c r="O5" s="36">
+        <v>13</v>
+      </c>
+      <c r="P5" s="36">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>15</v>
+      </c>
+      <c r="R5" s="36">
+        <v>16</v>
+      </c>
+      <c r="S5" s="36">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K1:K4"/>
+  <mergeCells count="25">
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="S1:S4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L1:M2"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:D1"/>
@@ -905,6 +1061,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K1:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -912,6 +1073,255 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B11875-A3ED-4F4D-BB36-B67A974C356F}">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="38"/>
+      <c r="N1" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="45"/>
+      <c r="S2" s="44"/>
+    </row>
+    <row r="3" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="45"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="44"/>
+    </row>
+    <row r="4" spans="1:19" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="44"/>
+    </row>
+    <row r="5" spans="1:19" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9</v>
+      </c>
+      <c r="L5" s="36">
+        <v>10</v>
+      </c>
+      <c r="M5" s="36">
+        <v>11</v>
+      </c>
+      <c r="N5" s="36">
+        <v>12</v>
+      </c>
+      <c r="O5" s="36">
+        <v>13</v>
+      </c>
+      <c r="P5" s="36">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>15</v>
+      </c>
+      <c r="R5" s="36">
+        <v>16</v>
+      </c>
+      <c r="S5" s="36">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="S1:S4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B84D0A2-A99C-4ADB-96B5-F41903DC5336}">
   <dimension ref="A1:S10"/>
   <sheetViews>
@@ -922,128 +1332,128 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="4" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="4" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="20"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="20"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="13"/>
       <c r="O2" s="27"/>
       <c r="P2" s="28"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="33"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="27"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="20"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="27"/>
       <c r="P3" s="28"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="33"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="29"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1079,121 +1489,121 @@
       <c r="K5" s="1">
         <v>9</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="29"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="33"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="29"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="33"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="29"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="33"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="29"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="33"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="30"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="2">
         <v>10</v>
       </c>
@@ -1221,6 +1631,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A6:K10"/>
     <mergeCell ref="N1:N9"/>
     <mergeCell ref="O1:Q4"/>
@@ -1237,22 +1657,12 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="L1:M4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9C0446-E837-449D-AFC4-04E9451A924D}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -1263,88 +1673,88 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="24"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="25"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1402,7 +1812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FB012C-017E-4F4C-90FF-B7F3F28B3BE5}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1419,114 +1829,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="27"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="29"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="29"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="29"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="29"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="30"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
